--- a/spec/data/workbook.xlsx
+++ b/spec/data/workbook.xlsx
@@ -1,29 +1,81 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="105" windowWidth="15120" windowHeight="8010"/>
+    <workbookView xWindow="360" yWindow="120" windowWidth="16155" windowHeight="10290"/>
   </bookViews>
   <sheets>
-    <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
-    <sheet name="Tabelle2" sheetId="2" r:id="rId2"/>
-    <sheet name="Tabelle3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="125725"/>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+  <si>
+    <t>workbook</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>sheet1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>simple</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>file</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>sheet2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>foo</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>foobaaa</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>matz</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>is</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>nice</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>foo</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="6"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
     </font>
   </fonts>
   <fills count="2">
@@ -342,39 +394,92 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <sheetPr codeName="Sheet1"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16.5"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.78740157499999996" right="0.78740157499999996" top="0.984251969" bottom="0.984251969" header="0.51200000000000001" footer="0.51200000000000001"/>
+  <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr codeName="Sheet2"/>
+  <dimension ref="A1:C1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16.5"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.78740157499999996" right="0.78740157499999996" top="0.984251969" bottom="0.984251969" header="0.51200000000000001" footer="0.51200000000000001"/>
+  <headerFooter alignWithMargins="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr codeName="Sheet3"/>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16.5"/>
   <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.78740157499999996" right="0.78740157499999996" top="0.984251969" bottom="0.984251969" header="0.51200000000000001" footer="0.51200000000000001"/>
+  <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
--- a/spec/data/workbook.xlsx
+++ b/spec/data/workbook.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="360" yWindow="120" windowWidth="16155" windowHeight="10290"/>
@@ -55,7 +55,6 @@
   </si>
   <si>
     <t>nice</t>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>foo</t>
@@ -64,7 +63,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -106,11 +105,16 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Larissa-Design">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Larissa">
   <a:themeElements>
     <a:clrScheme name="Larissa">
       <a:dk1>
@@ -184,6 +188,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -218,6 +223,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Larissa">
@@ -393,15 +399,13 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
@@ -441,7 +445,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:C1"/>
   <sheetViews>
@@ -449,7 +453,7 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
@@ -470,13 +474,13 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.78740157499999996" right="0.78740157499999996" top="0.984251969" bottom="0.984251969" header="0.51200000000000001" footer="0.51200000000000001"/>

--- a/spec/data/workbook.xlsx
+++ b/spec/data/workbook.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="120" windowWidth="16155" windowHeight="10290"/>
+    <workbookView xWindow="360" yWindow="120" windowWidth="16160" windowHeight="10290" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -403,9 +403,9 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13"/>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
@@ -449,11 +449,11 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:C1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13"/>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
@@ -480,7 +480,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13"/>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.78740157499999996" right="0.78740157499999996" top="0.984251969" bottom="0.984251969" header="0.51200000000000001" footer="0.51200000000000001"/>
